--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="183">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,19 +49,22 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>broke</t>
@@ -76,31 +79,31 @@
     <t>loves</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>apples</t>
   </si>
   <si>
     <t>pleased</t>
@@ -109,439 +112,448 @@
     <t>best</t>
   </si>
   <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>pie</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>son</t>
+    <t>chicken</t>
   </si>
   <si>
     <t>mas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>everyday</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>handy</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>dough</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>liked</t>
+    <t>ice</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>well</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>everything</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>amazon</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>purchased</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>large</t>
+    <t>came</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>lot</t>
+    <t>right</t>
   </si>
   <si>
     <t>easily</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>handle</t>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>work</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>size</t>
   </si>
   <si>
     <t>product</t>
@@ -908,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,10 +928,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -977,13 +989,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -995,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -1027,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1045,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1069,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1077,13 +1089,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1095,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1127,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4905660377358491</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1145,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1169,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1177,13 +1189,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3720930232558139</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1195,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1219,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1227,37 +1239,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8544891640866873</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L8">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M8">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1277,37 +1289,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3265306122448979</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1319,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1327,13 +1339,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2435897435897436</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1345,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1369,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1377,89 +1389,113 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1891891891891892</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0.06</v>
+      </c>
+      <c r="F11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>85</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="L11">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>158</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="L12">
         <v>35</v>
       </c>
-      <c r="D11">
+      <c r="M12">
         <v>35</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>150</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="L11">
-        <v>35</v>
-      </c>
-      <c r="M11">
-        <v>35</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1471,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7402597402597403</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M14">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1497,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7316017316017316</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L15">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M15">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1523,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7288135593220338</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="M16">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1549,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="L17">
         <v>32</v>
       </c>
-      <c r="K17">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
       <c r="M17">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1575,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7111111111111111</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.703125</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1627,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6986301369863014</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6857142857142857</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6749598715890851</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>841</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>841</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>405</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>854</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>854</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.65625</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6514285714285715</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M25">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6461538461538462</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1809,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1840,16 +1876,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1861,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6363636363636364</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1887,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6326530612244898</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1913,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="L31">
         <v>46</v>
       </c>
-      <c r="K31">
-        <v>0.6324786324786325</v>
-      </c>
-      <c r="L31">
-        <v>74</v>
-      </c>
       <c r="M31">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1939,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32">
+        <v>0.618421052631579</v>
+      </c>
+      <c r="L32">
         <v>47</v>
       </c>
-      <c r="K32">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="L32">
-        <v>36</v>
-      </c>
       <c r="M32">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1965,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.6078431372549019</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1991,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6056338028169014</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2017,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6052631578947368</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L35">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2043,47 +2079,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5897435897435898</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>23</v>
-      </c>
-      <c r="M36">
-        <v>23</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5882352941176471</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2095,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5862068965517241</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2121,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5802469135802469</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2147,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L40">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2173,12 +2209,12 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
         <v>0.5769230769230769</v>
@@ -2204,16 +2240,16 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5737704918032787</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2225,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.5692307692307692</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2251,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5662650602409639</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2277,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.5555555555555556</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2303,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.5535714285714286</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2329,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.55</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2355,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.5449101796407185</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="L48">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2381,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.5416666666666666</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2407,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.5263157894736842</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2433,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.5121951219512195</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2459,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2485,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2511,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.492063492063492</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2537,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.4897959183673469</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2563,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.4887218045112782</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L56">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2589,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.4727272727272727</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2615,15 +2651,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="L58">
         <v>18</v>
@@ -2641,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.4565217391304348</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2667,47 +2703,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.4545454545454545</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L60">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.4516129032258064</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L61">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="M61">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2719,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>34</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.446078431372549</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L62">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2745,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>226</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.4457831325301205</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L63">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2771,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.4202334630350195</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L64">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2797,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.4078947368421053</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2823,21 +2859,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.4054054054054054</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L66">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M66">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2849,21 +2885,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.4042553191489361</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2875,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.3984962406015037</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L68">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2901,21 +2937,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.3970588235294117</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2927,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.3953488372093023</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2953,21 +2989,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.3840877914951989</v>
+        <v>0.3689986282578875</v>
       </c>
       <c r="L71">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M71">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2979,21 +3015,21 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.3809523809523809</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3005,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.3796296296296297</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L73">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M73">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3031,21 +3067,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.3762376237623762</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3057,21 +3093,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.3695652173913043</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3083,21 +3119,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.3666666666666666</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3109,21 +3145,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.3636363636363636</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L77">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3135,21 +3171,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>133</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.3611111111111111</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3161,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.3453237410071943</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L79">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3187,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.3384615384615385</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3213,21 +3249,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.3238095238095238</v>
+        <v>0.3272335844994618</v>
       </c>
       <c r="L81">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="M81">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3239,21 +3275,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>71</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.3214285714285715</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L82">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M82">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3265,21 +3301,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.3207750269106566</v>
+        <v>0.3125</v>
       </c>
       <c r="L83">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="M83">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3291,21 +3327,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>631</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.3194444444444444</v>
+        <v>0.3125</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3317,21 +3353,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.3178807947019868</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L85">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M85">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3343,21 +3379,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.3176470588235294</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3369,21 +3405,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.3125</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3395,21 +3431,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.3063063063063063</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L88">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M88">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3421,21 +3457,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.3050847457627119</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3447,21 +3483,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.296875</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M90">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3473,21 +3509,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.2821192052980133</v>
+        <v>0.2887417218543046</v>
       </c>
       <c r="L91">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M91">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3499,21 +3535,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.2751677852348993</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="L92">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3525,21 +3561,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.2727272727272727</v>
+        <v>0.2821316614420062</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M93">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3551,21 +3587,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>48</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.2635658914728682</v>
+        <v>0.28</v>
       </c>
       <c r="L94">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M94">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3577,21 +3613,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.2586427656850192</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L95">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="M95">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3600,24 +3636,24 @@
         <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>579</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.2564102564102564</v>
+        <v>0.2714468629961588</v>
       </c>
       <c r="L96">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="M96">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3626,24 +3662,24 @@
         <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>87</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.2538461538461538</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L97">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M97">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3655,21 +3691,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.2530120481927711</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L98">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M98">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3681,21 +3717,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.2507836990595611</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="L99">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M99">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3707,47 +3743,47 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>239</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.25</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L100">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M100">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N100">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.2429378531073446</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L101">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3759,21 +3795,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>134</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.2368421052631579</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L102">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M102">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3785,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.2352941176470588</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L103">
         <v>20</v>
@@ -3811,21 +3847,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.2295081967213115</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L104">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M104">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3837,47 +3873,47 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.2282608695652174</v>
+        <v>0.2303523035230352</v>
       </c>
       <c r="L105">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M105">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>71</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.2209302325581395</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L106">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M106">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3889,21 +3925,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.2207792207792208</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="L107">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3915,47 +3951,47 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.2183098591549296</v>
+        <v>0.2241758241758242</v>
       </c>
       <c r="L108">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="M108">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="N108">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O108">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>111</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.2150537634408602</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M109">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3967,47 +4003,47 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.2137404580152672</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L110">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M110">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.2121212121212121</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L111">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M111">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4019,21 +4055,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.2110091743119266</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4045,47 +4081,47 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.2079207920792079</v>
+        <v>0.2066420664206642</v>
       </c>
       <c r="L113">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M113">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N113">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.2068126520681265</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="L114">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M114">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4097,41 +4133,41 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>326</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.2059620596205962</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="L115">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M115">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N115">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.2</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L116">
         <v>33</v>
@@ -4149,21 +4185,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.1958762886597938</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="L117">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M117">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4175,21 +4211,21 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K118">
-        <v>0.1951219512195122</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L118">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="M118">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4201,21 +4237,21 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>132</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.1901840490797546</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="L119">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M119">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4227,73 +4263,73 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>0.189873417721519</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="L120">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M120">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N120">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.1895910780669145</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L121">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M121">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N121">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>218</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.1861575178997613</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="L122">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="M122">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4305,47 +4341,47 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>341</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K123">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L123">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="M123">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="N123">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>371</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K124">
-        <v>0.18</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="L124">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M124">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4357,21 +4393,21 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>82</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K125">
-        <v>0.1734317343173432</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L125">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M125">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4383,21 +4419,21 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K126">
-        <v>0.1722689075630252</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L126">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M126">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4409,21 +4445,21 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>197</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K127">
-        <v>0.1704545454545454</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L127">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M127">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4435,21 +4471,21 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K128">
-        <v>0.1704545454545454</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L128">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M128">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4461,21 +4497,21 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K129">
-        <v>0.1684210526315789</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="L129">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M129">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4487,47 +4523,47 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K130">
-        <v>0.1666666666666667</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="L130">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M130">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K131">
-        <v>0.1491228070175439</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L131">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M131">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -4539,21 +4575,21 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K132">
-        <v>0.1475409836065574</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="L132">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M132">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -4565,73 +4601,73 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K133">
-        <v>0.146551724137931</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L133">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M133">
         <v>19</v>
       </c>
       <c r="N133">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O133">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K134">
-        <v>0.1449275362318841</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="L134">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M134">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N134">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K135">
-        <v>0.1428571428571428</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L135">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M135">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -4643,21 +4679,21 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K136">
-        <v>0.1391304347826087</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="L136">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M136">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -4669,21 +4705,21 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K137">
-        <v>0.1330645161290323</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="L137">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M137">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -4695,99 +4731,99 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>215</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K138">
-        <v>0.1323741007194245</v>
+        <v>0.1305595408895265</v>
       </c>
       <c r="L138">
+        <v>91</v>
+      </c>
+      <c r="M138">
         <v>92</v>
       </c>
-      <c r="M138">
-        <v>95</v>
-      </c>
       <c r="N138">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O138">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K139">
-        <v>0.130718954248366</v>
+        <v>0.1224299065420561</v>
       </c>
       <c r="L139">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="M139">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>133</v>
+        <v>939</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K140">
-        <v>0.1298701298701299</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L140">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M140">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K141">
-        <v>0.1297709923664122</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L141">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M141">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N141">
         <v>0.98</v>
@@ -4799,21 +4835,21 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K142">
-        <v>0.1297297297297297</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L142">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M142">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -4825,47 +4861,47 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>161</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K143">
-        <v>0.1274601686972821</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L143">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="M143">
+        <v>19</v>
+      </c>
+      <c r="N143">
+        <v>0.95</v>
+      </c>
+      <c r="O143">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P143" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q143">
         <v>141</v>
-      </c>
-      <c r="N143">
-        <v>0.96</v>
-      </c>
-      <c r="O143">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P143" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q143">
-        <v>931</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K144">
-        <v>0.1241830065359477</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L144">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M144">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -4877,53 +4913,53 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K145">
-        <v>0.1185185185185185</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L145">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M145">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N145">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O145">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K146">
-        <v>0.115606936416185</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L146">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M146">
         <v>22</v>
       </c>
       <c r="N146">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="O146">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
@@ -4934,68 +4970,68 @@
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K147">
-        <v>0.108843537414966</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L147">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M147">
         <v>17</v>
       </c>
       <c r="N147">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O147">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K148">
-        <v>0.1082802547770701</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="L148">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M148">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N148">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O148">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P148" t="b">
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K149">
-        <v>0.09926470588235294</v>
+        <v>0.104602510460251</v>
       </c>
       <c r="L149">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M149">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -5007,209 +5043,209 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K150">
-        <v>0.09282700421940929</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L150">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M150">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N150">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O150">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <v>215</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K151">
-        <v>0.08892763731473409</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="L151">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M151">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="N151">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O151">
-        <v>0.08999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>1045</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K152">
-        <v>0.08759124087591241</v>
+        <v>0.09057301293900184</v>
       </c>
       <c r="L152">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M152">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N152">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O152">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P152" t="b">
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>375</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K153">
-        <v>0.08516483516483517</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L153">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M153">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N153">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O153">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>333</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K154">
-        <v>0.0851063829787234</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L154">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M154">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N154">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O154">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>473</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K155">
-        <v>0.08502772643253234</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L155">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M155">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N155">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O155">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>495</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K156">
-        <v>0.07849829351535836</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L156">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M156">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N156">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O156">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P156" t="b">
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>270</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K157">
-        <v>0.07653061224489796</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L157">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M157">
         <v>17</v>
       </c>
       <c r="N157">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O157">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
@@ -5220,42 +5256,42 @@
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K158">
-        <v>0.07202216066481995</v>
+        <v>0.07309941520467836</v>
       </c>
       <c r="L158">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M158">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N158">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="O158">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="P158" t="b">
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K159">
-        <v>0.06976744186046512</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L159">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M159">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N159">
         <v>0.96</v>
@@ -5267,85 +5303,163 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K160">
-        <v>0.0488997555012225</v>
+        <v>0.06462882096069869</v>
       </c>
       <c r="L160">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M160">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N160">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O160">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>389</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K161">
-        <v>0.03952569169960474</v>
+        <v>0.06267029972752043</v>
       </c>
       <c r="L161">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M161">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N161">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="O161">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>729</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K162">
-        <v>0.03571428571428571</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L162">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M162">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N162">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="O162">
-        <v>0.21</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>702</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="10:17">
+      <c r="J163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K163">
+        <v>0.05428571428571428</v>
+      </c>
+      <c r="L163">
+        <v>19</v>
+      </c>
+      <c r="M163">
+        <v>27</v>
+      </c>
+      <c r="N163">
+        <v>0.7</v>
+      </c>
+      <c r="O163">
+        <v>0.3</v>
+      </c>
+      <c r="P163" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q163">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="10:17">
+      <c r="J164" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K164">
+        <v>0.04780876494023904</v>
+      </c>
+      <c r="L164">
+        <v>36</v>
+      </c>
+      <c r="M164">
+        <v>50</v>
+      </c>
+      <c r="N164">
+        <v>0.72</v>
+      </c>
+      <c r="O164">
+        <v>0.28</v>
+      </c>
+      <c r="P164" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="165" spans="10:17">
+      <c r="J165" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K165">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="L165">
+        <v>21</v>
+      </c>
+      <c r="M165">
+        <v>27</v>
+      </c>
+      <c r="N165">
+        <v>0.78</v>
+      </c>
+      <c r="O165">
+        <v>0.22</v>
+      </c>
+      <c r="P165" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
